--- a/카드.xlsx
+++ b/카드.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNUCSE15최원석\Desktop\designs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\unity3d\Yogg-Saron RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,135 +59,145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2턴 동안 방어도가 1 증가합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2턴 동안 회피율이 20 증가합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응급 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1턴 동안 1명의 적에게 "혼란"을 부여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 방벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3턴 동안 방어도가 2 증가합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"대상 하나에게 5의 대미지를 줍니다."
+"플레이어에게 5의 대미지를 줍니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2턴 동안 회피율이 30 증가합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호의 폭풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"모두에게 3의 대미지를 줍니다."
+"1턴 동안 모두에게 둔화를 부여합니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체 최면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1턴 동안 2명의 적에게 "혼란"을 부여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2턴 동안 대상 둘에게 '혼란'을 부여합니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역병 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2턴 동안 2명의 적에게 "약화"를 부여합니다
+(대상의 공격력이 2만큼 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"플레이어에게 3턴간 둔화를 부여합니다."
+"대상 하나에게 5의 대미지를 줍니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 체력을 2 회복시킵니다.
+그 뒤 자신의 체력을 2 회복시킵니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"플레이어의 체력을 5 회복시킵니다."
+"적 모두의 체력을 2 회복시킵니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 방벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공의 폭풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역병 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전원 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1턴 동안 2명의 적에게 "약화"를 부여합니다
+(대상의 공격력이 1만큼 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"플레이어에게 1턴간 둔화를 부여합니다."
 "대상 하나에게 3의 대미지를 줍니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2턴 동안 방어도가 1 증가합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2턴 동안 회피율이 20 증가합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1턴 동안 2명의 적에게 "약화"를 부여합니다
-(대상의 공격력이 1만큼 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응급 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 체력을 2 회복시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"플레이어의 체력을 3 회복시킵니다."
 "적 모두의 체력을 1 회복시킵니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정신 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1턴 동안 1명의 적에게 "혼란"을 부여합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2턴 동안 대상 하나에게 '혼란'을 부여합니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음 방벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3턴 동안 방어도가 2 증가합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"대상 하나에게 5의 대미지를 줍니다."
 "플레이어에게 5의 대미지를 줍니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2턴 동안 회피율이 30 증가합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수호의 폭풍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"모두에게 3의 대미지를 줍니다."
-"1턴 동안 모두에게 둔화를 부여합니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단체 최면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1턴 동안 2명의 적에게 "혼란"을 부여합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2턴 동안 대상 둘에게 '혼란'을 부여합니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역병 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2턴 동안 2명의 적에게 "약화"를 부여합니다
-(대상의 공격력이 2만큼 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"플레이어에게 3턴간 둔화를 부여합니다."
-"대상 하나에게 5의 대미지를 줍니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 체력을 2 회복시킵니다.
+    <t>"2턴 동안 대상 하나에게 '혼란'을 부여합니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 체력을 3 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 체력을 3 회복시킵니다.
 그 뒤 자신의 체력을 2 회복시킵니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"플레이어의 체력을 5 회복시킵니다."
-"적 모두의 체력을 2 회복시킵니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음 방벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시공의 폭풍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역병 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전원 처치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,7 +309,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -605,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -616,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
@@ -627,142 +637,142 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
